--- a/nriss-patch-1/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:12:00+00:00</t>
+    <t>2025-04-10T15:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
